--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value97.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value97.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9881850822618822</v>
+        <v>1.427132964134216</v>
       </c>
       <c r="B1">
-        <v>1.401278152078069</v>
+        <v>3.364690065383911</v>
       </c>
       <c r="C1">
-        <v>2.607583455773395</v>
+        <v>3.028459310531616</v>
       </c>
       <c r="D1">
-        <v>4.875390399690789</v>
+        <v>1.628336071968079</v>
       </c>
       <c r="E1">
-        <v>1.178176279488545</v>
+        <v>1.054091334342957</v>
       </c>
     </row>
   </sheetData>
